--- a/artfynd/A 62837-2025 artfynd.xlsx
+++ b/artfynd/A 62837-2025 artfynd.xlsx
@@ -808,7 +808,7 @@
         <v>131016458</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -917,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131022765</v>
+        <v>131017387</v>
       </c>
       <c r="B4" t="n">
-        <v>57877</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -928,16 +928,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>477085</v>
+        <v>477188</v>
       </c>
       <c r="R4" t="n">
-        <v>6789001</v>
+        <v>6789131</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -993,9 +993,24 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack på fem granar inom en radie av 5 meter</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1022,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131017387</v>
+        <v>131022765</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1033,16 +1048,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1065,10 +1080,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>477188</v>
+        <v>477085</v>
       </c>
       <c r="R5" t="n">
-        <v>6789131</v>
+        <v>6789001</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1098,24 +1113,9 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Ringhack på fem granar inom en radie av 5 meter</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131017110</v>
+        <v>131016558</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1153,39 +1153,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>477185</v>
+        <v>477128</v>
       </c>
       <c r="R6" t="n">
-        <v>6789174</v>
+        <v>6789106</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1254,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131016886</v>
+        <v>131017563</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1289,10 +1284,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>477116</v>
+        <v>477226</v>
       </c>
       <c r="R7" t="n">
-        <v>6789167</v>
+        <v>6789084</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1335,6 +1330,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131016558</v>
+        <v>131016886</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>477128</v>
+        <v>477116</v>
       </c>
       <c r="R8" t="n">
-        <v>6789106</v>
+        <v>6789167</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131017563</v>
+        <v>131017110</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1479,34 +1479,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>477226</v>
+        <v>477185</v>
       </c>
       <c r="R9" t="n">
-        <v>6789084</v>
+        <v>6789174</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1549,11 +1554,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1580,10 +1580,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131016935</v>
+        <v>131023058</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1609,16 +1609,19 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>477129</v>
+        <v>477070</v>
       </c>
       <c r="R10" t="n">
-        <v>6789191</v>
+        <v>6788943</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1648,27 +1651,18 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1687,10 +1681,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131023058</v>
+        <v>131016935</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1716,19 +1710,16 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>477070</v>
+        <v>477129</v>
       </c>
       <c r="R11" t="n">
-        <v>6788943</v>
+        <v>6789191</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1758,18 +1749,27 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>131016826</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>131016263</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>131017558</v>
       </c>
       <c r="B14" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>131022979</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>131017743</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>131017298</v>
       </c>
       <c r="B17" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>131016952</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>131022711</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>131022915</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>131022892</v>
       </c>
       <c r="B21" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>131016974</v>
       </c>
       <c r="B22" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>131022789</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131022847</v>
+        <v>131017116</v>
       </c>
       <c r="B24" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3091,42 +3091,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477122</v>
+        <v>477185</v>
       </c>
       <c r="R24" t="n">
-        <v>6788910</v>
+        <v>6789174</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3156,9 +3148,24 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3185,10 +3192,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131017116</v>
+        <v>131022847</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3196,34 +3203,42 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477185</v>
+        <v>477122</v>
       </c>
       <c r="R25" t="n">
-        <v>6789174</v>
+        <v>6788910</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3253,24 +3268,9 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3300,7 +3300,7 @@
         <v>131016331</v>
       </c>
       <c r="B26" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>

--- a/artfynd/A 62837-2025 artfynd.xlsx
+++ b/artfynd/A 62837-2025 artfynd.xlsx
@@ -917,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131017387</v>
+        <v>131022765</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -928,16 +928,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>477188</v>
+        <v>477085</v>
       </c>
       <c r="R4" t="n">
-        <v>6789131</v>
+        <v>6789001</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -993,24 +993,9 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack på fem granar inom en radie av 5 meter</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1037,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131022765</v>
+        <v>131017387</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1048,16 +1033,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1080,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>477085</v>
+        <v>477188</v>
       </c>
       <c r="R5" t="n">
-        <v>6789001</v>
+        <v>6789131</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1113,9 +1098,24 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Ringhack på fem granar inom en radie av 5 meter</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -2331,10 +2331,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131017298</v>
+        <v>131016952</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2342,39 +2342,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477176</v>
+        <v>477160</v>
       </c>
       <c r="R17" t="n">
-        <v>6789136</v>
+        <v>6789179</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2443,7 +2438,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131016952</v>
+        <v>131022711</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2472,16 +2467,19 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477160</v>
+        <v>477096</v>
       </c>
       <c r="R18" t="n">
-        <v>6789179</v>
+        <v>6789012</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2511,19 +2509,14 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>12:48</t>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2532,6 +2525,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2550,10 +2544,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131022711</v>
+        <v>131017298</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2561,37 +2555,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477096</v>
+        <v>477176</v>
       </c>
       <c r="R19" t="n">
-        <v>6789012</v>
+        <v>6789136</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2621,14 +2617,19 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2637,7 +2638,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131022915</v>
+        <v>131022892</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,26 +2667,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2694,10 +2699,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477093</v>
+        <v>477106</v>
       </c>
       <c r="R20" t="n">
-        <v>6788924</v>
+        <v>6788935</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2738,7 +2743,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2757,10 +2761,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131022892</v>
+        <v>131022915</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2768,31 +2772,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2800,10 +2799,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477106</v>
+        <v>477093</v>
       </c>
       <c r="R21" t="n">
-        <v>6788935</v>
+        <v>6788924</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2844,6 +2843,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131017116</v>
+        <v>131022847</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3091,34 +3091,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477185</v>
+        <v>477122</v>
       </c>
       <c r="R24" t="n">
-        <v>6789174</v>
+        <v>6788910</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3148,24 +3156,9 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3192,10 +3185,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131022847</v>
+        <v>131017116</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3203,42 +3196,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477122</v>
+        <v>477185</v>
       </c>
       <c r="R25" t="n">
-        <v>6788910</v>
+        <v>6789174</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3268,9 +3253,24 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 62837-2025 artfynd.xlsx
+++ b/artfynd/A 62837-2025 artfynd.xlsx
@@ -2331,10 +2331,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131016952</v>
+        <v>131017298</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2342,34 +2342,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477160</v>
+        <v>477176</v>
       </c>
       <c r="R17" t="n">
-        <v>6789179</v>
+        <v>6789136</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2438,7 +2443,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131022711</v>
+        <v>131016952</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2467,19 +2472,16 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477096</v>
+        <v>477160</v>
       </c>
       <c r="R18" t="n">
-        <v>6789012</v>
+        <v>6789179</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2509,14 +2511,19 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2525,7 +2532,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2544,10 +2550,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131017298</v>
+        <v>131022711</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2555,39 +2561,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477176</v>
+        <v>477096</v>
       </c>
       <c r="R19" t="n">
-        <v>6789136</v>
+        <v>6789012</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2617,19 +2621,14 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>12:48</t>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2638,6 +2637,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131022892</v>
+        <v>131022915</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,31 +2667,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2699,10 +2694,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477106</v>
+        <v>477093</v>
       </c>
       <c r="R20" t="n">
-        <v>6788935</v>
+        <v>6788924</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2743,6 +2738,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2761,10 +2757,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131022915</v>
+        <v>131022892</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2772,26 +2768,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2799,10 +2800,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477093</v>
+        <v>477106</v>
       </c>
       <c r="R21" t="n">
-        <v>6788924</v>
+        <v>6788935</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2843,7 +2844,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62837-2025 artfynd.xlsx
+++ b/artfynd/A 62837-2025 artfynd.xlsx
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131016558</v>
+        <v>131017110</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1153,34 +1153,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>477128</v>
+        <v>477185</v>
       </c>
       <c r="R6" t="n">
-        <v>6789106</v>
+        <v>6789174</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,7 +1254,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131017563</v>
+        <v>131016886</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1284,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>477226</v>
+        <v>477116</v>
       </c>
       <c r="R7" t="n">
-        <v>6789084</v>
+        <v>6789167</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1330,11 +1335,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,7 +1361,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131016886</v>
+        <v>131016558</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>477116</v>
+        <v>477128</v>
       </c>
       <c r="R8" t="n">
-        <v>6789167</v>
+        <v>6789106</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131017110</v>
+        <v>131017563</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1479,39 +1479,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>477185</v>
+        <v>477226</v>
       </c>
       <c r="R9" t="n">
-        <v>6789174</v>
+        <v>6789084</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1554,6 +1549,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 62837-2025 artfynd.xlsx
+++ b/artfynd/A 62837-2025 artfynd.xlsx
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131017110</v>
+        <v>131016558</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1153,39 +1153,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>477185</v>
+        <v>477128</v>
       </c>
       <c r="R6" t="n">
-        <v>6789174</v>
+        <v>6789106</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1254,7 +1249,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131016886</v>
+        <v>131017563</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1289,10 +1284,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>477116</v>
+        <v>477226</v>
       </c>
       <c r="R7" t="n">
-        <v>6789167</v>
+        <v>6789084</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1335,6 +1330,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,7 +1361,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131016558</v>
+        <v>131016886</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>477128</v>
+        <v>477116</v>
       </c>
       <c r="R8" t="n">
-        <v>6789106</v>
+        <v>6789167</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131017563</v>
+        <v>131017110</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1479,34 +1479,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>477226</v>
+        <v>477185</v>
       </c>
       <c r="R9" t="n">
-        <v>6789084</v>
+        <v>6789174</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1549,11 +1554,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -2331,10 +2331,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131017298</v>
+        <v>131016952</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2342,39 +2342,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477176</v>
+        <v>477160</v>
       </c>
       <c r="R17" t="n">
-        <v>6789136</v>
+        <v>6789179</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2443,7 +2438,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131016952</v>
+        <v>131022711</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2472,16 +2467,19 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477160</v>
+        <v>477096</v>
       </c>
       <c r="R18" t="n">
-        <v>6789179</v>
+        <v>6789012</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2511,19 +2509,14 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>12:48</t>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2532,6 +2525,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2550,10 +2544,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131022711</v>
+        <v>131017298</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2561,37 +2555,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477096</v>
+        <v>477176</v>
       </c>
       <c r="R19" t="n">
-        <v>6789012</v>
+        <v>6789136</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2621,14 +2617,19 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2637,7 +2638,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131022847</v>
+        <v>131017116</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3091,42 +3091,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477122</v>
+        <v>477185</v>
       </c>
       <c r="R24" t="n">
-        <v>6788910</v>
+        <v>6789174</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3156,9 +3148,24 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3185,10 +3192,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131017116</v>
+        <v>131022847</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3196,34 +3203,42 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477185</v>
+        <v>477122</v>
       </c>
       <c r="R25" t="n">
-        <v>6789174</v>
+        <v>6788910</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3253,24 +3268,9 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 62837-2025 artfynd.xlsx
+++ b/artfynd/A 62837-2025 artfynd.xlsx
@@ -1249,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131017563</v>
+        <v>131017110</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,34 +1260,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>477226</v>
+        <v>477185</v>
       </c>
       <c r="R7" t="n">
-        <v>6789084</v>
+        <v>6789174</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1330,11 +1335,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,7 +1361,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131016886</v>
+        <v>131017563</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>477116</v>
+        <v>477226</v>
       </c>
       <c r="R8" t="n">
-        <v>6789167</v>
+        <v>6789084</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1442,6 +1442,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1468,10 +1473,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131017110</v>
+        <v>131016886</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1479,39 +1484,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>477185</v>
+        <v>477116</v>
       </c>
       <c r="R9" t="n">
-        <v>6789174</v>
+        <v>6789167</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>

--- a/artfynd/A 62837-2025 artfynd.xlsx
+++ b/artfynd/A 62837-2025 artfynd.xlsx
@@ -1249,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131017110</v>
+        <v>131017563</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,39 +1260,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>477185</v>
+        <v>477226</v>
       </c>
       <c r="R7" t="n">
-        <v>6789174</v>
+        <v>6789084</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1335,6 +1330,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,7 +1361,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131017563</v>
+        <v>131016886</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>477226</v>
+        <v>477116</v>
       </c>
       <c r="R8" t="n">
-        <v>6789084</v>
+        <v>6789167</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1442,11 +1442,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1473,10 +1468,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131016886</v>
+        <v>131017110</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1484,34 +1479,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>477116</v>
+        <v>477185</v>
       </c>
       <c r="R9" t="n">
-        <v>6789167</v>
+        <v>6789174</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131023058</v>
+        <v>131016935</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1609,19 +1609,16 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>477070</v>
+        <v>477129</v>
       </c>
       <c r="R10" t="n">
-        <v>6788943</v>
+        <v>6789191</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1651,18 +1648,27 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1681,7 +1687,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131016935</v>
+        <v>131023058</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1710,16 +1716,19 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>477129</v>
+        <v>477070</v>
       </c>
       <c r="R11" t="n">
-        <v>6789191</v>
+        <v>6788943</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1749,27 +1758,18 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131016974</v>
+        <v>131022789</v>
       </c>
       <c r="B22" t="n">
         <v>79243</v>
@@ -2891,16 +2891,19 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477179</v>
+        <v>477076</v>
       </c>
       <c r="R22" t="n">
-        <v>6789184</v>
+        <v>6788997</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2930,21 +2933,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AC22" t="inlineStr">
         <is>
           <t>Rikligt i området</t>
@@ -2956,6 +2949,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -2974,7 +2968,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131022789</v>
+        <v>131016974</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3003,19 +2997,16 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>477076</v>
+        <v>477179</v>
       </c>
       <c r="R23" t="n">
-        <v>6788997</v>
+        <v>6789184</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3045,11 +3036,21 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AC23" t="inlineStr">
         <is>
           <t>Rikligt i området</t>
@@ -3061,7 +3062,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131017116</v>
+        <v>131022847</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3091,34 +3091,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477185</v>
+        <v>477122</v>
       </c>
       <c r="R24" t="n">
-        <v>6789174</v>
+        <v>6788910</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3148,24 +3156,9 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3192,10 +3185,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131022847</v>
+        <v>131017116</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3203,42 +3196,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477122</v>
+        <v>477185</v>
       </c>
       <c r="R25" t="n">
-        <v>6788910</v>
+        <v>6789174</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3268,9 +3253,24 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 62837-2025 artfynd.xlsx
+++ b/artfynd/A 62837-2025 artfynd.xlsx
@@ -1580,7 +1580,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131016935</v>
+        <v>131023058</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1609,16 +1609,19 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>477129</v>
+        <v>477070</v>
       </c>
       <c r="R10" t="n">
-        <v>6789191</v>
+        <v>6788943</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1648,27 +1651,18 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1687,7 +1681,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131023058</v>
+        <v>131016935</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1716,19 +1710,16 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>477070</v>
+        <v>477129</v>
       </c>
       <c r="R11" t="n">
-        <v>6788943</v>
+        <v>6789191</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1758,18 +1749,27 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131022915</v>
+        <v>131022892</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,26 +2667,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2694,10 +2699,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477093</v>
+        <v>477106</v>
       </c>
       <c r="R20" t="n">
-        <v>6788924</v>
+        <v>6788935</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2738,7 +2743,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2757,10 +2761,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131022892</v>
+        <v>131022915</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2768,31 +2772,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2800,10 +2799,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477106</v>
+        <v>477093</v>
       </c>
       <c r="R21" t="n">
-        <v>6788935</v>
+        <v>6788924</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2844,6 +2843,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131022789</v>
+        <v>131016974</v>
       </c>
       <c r="B22" t="n">
         <v>79243</v>
@@ -2891,19 +2891,16 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477076</v>
+        <v>477179</v>
       </c>
       <c r="R22" t="n">
-        <v>6788997</v>
+        <v>6789184</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2933,11 +2930,21 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AC22" t="inlineStr">
         <is>
           <t>Rikligt i området</t>
@@ -2949,7 +2956,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -2968,7 +2974,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131016974</v>
+        <v>131022789</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -2997,16 +3003,19 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>477179</v>
+        <v>477076</v>
       </c>
       <c r="R23" t="n">
-        <v>6789184</v>
+        <v>6788997</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3036,21 +3045,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AC23" t="inlineStr">
         <is>
           <t>Rikligt i området</t>
@@ -3062,6 +3061,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131022847</v>
+        <v>131017116</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3091,42 +3091,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477122</v>
+        <v>477185</v>
       </c>
       <c r="R24" t="n">
-        <v>6788910</v>
+        <v>6789174</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3156,9 +3148,24 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3185,10 +3192,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131017116</v>
+        <v>131022847</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3196,34 +3203,42 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477185</v>
+        <v>477122</v>
       </c>
       <c r="R25" t="n">
-        <v>6789174</v>
+        <v>6788910</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3253,24 +3268,9 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 62837-2025 artfynd.xlsx
+++ b/artfynd/A 62837-2025 artfynd.xlsx
@@ -808,7 +808,7 @@
         <v>131016458</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>131016558</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>131017563</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>131016886</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>131023058</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>131016935</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>131016826</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>131016263</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>131017743</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>131016952</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>131022711</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131022892</v>
+        <v>131022915</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,31 +2667,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2699,10 +2694,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477106</v>
+        <v>477093</v>
       </c>
       <c r="R20" t="n">
-        <v>6788935</v>
+        <v>6788924</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2743,6 +2738,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2761,10 +2757,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131022915</v>
+        <v>131022892</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2772,26 +2768,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2799,10 +2800,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477093</v>
+        <v>477106</v>
       </c>
       <c r="R21" t="n">
-        <v>6788924</v>
+        <v>6788935</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2843,7 +2844,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>131016974</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>131022789</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131017116</v>
+        <v>131022847</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3091,34 +3091,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477185</v>
+        <v>477122</v>
       </c>
       <c r="R24" t="n">
-        <v>6789174</v>
+        <v>6788910</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3148,24 +3156,9 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3192,10 +3185,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131022847</v>
+        <v>131017116</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3203,42 +3196,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477122</v>
+        <v>477185</v>
       </c>
       <c r="R25" t="n">
-        <v>6788910</v>
+        <v>6789174</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3268,9 +3253,24 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3300,7 +3300,7 @@
         <v>131016331</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>

--- a/artfynd/A 62837-2025 artfynd.xlsx
+++ b/artfynd/A 62837-2025 artfynd.xlsx
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131022915</v>
+        <v>131022892</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,26 +2667,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2694,10 +2699,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477093</v>
+        <v>477106</v>
       </c>
       <c r="R20" t="n">
-        <v>6788924</v>
+        <v>6788935</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2738,7 +2743,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2757,10 +2761,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131022892</v>
+        <v>131022915</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2768,31 +2772,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2800,10 +2799,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477106</v>
+        <v>477093</v>
       </c>
       <c r="R21" t="n">
-        <v>6788935</v>
+        <v>6788924</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2844,6 +2843,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62837-2025 artfynd.xlsx
+++ b/artfynd/A 62837-2025 artfynd.xlsx
@@ -2331,10 +2331,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131016952</v>
+        <v>131017298</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2342,34 +2342,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477160</v>
+        <v>477176</v>
       </c>
       <c r="R17" t="n">
-        <v>6789179</v>
+        <v>6789136</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2438,7 +2443,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131022711</v>
+        <v>131016952</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2467,19 +2472,16 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477096</v>
+        <v>477160</v>
       </c>
       <c r="R18" t="n">
-        <v>6789012</v>
+        <v>6789179</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2509,14 +2511,19 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Rikligt i området</t>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2525,7 +2532,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2544,10 +2550,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131017298</v>
+        <v>131022711</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2555,39 +2561,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Trossbygget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477176</v>
+        <v>477096</v>
       </c>
       <c r="R19" t="n">
-        <v>6789136</v>
+        <v>6789012</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2617,19 +2621,14 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>12:48</t>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2638,6 +2637,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
